--- a/Otros/data BEAR tesis 1 (var).xlsx
+++ b/Otros/data BEAR tesis 1 (var).xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2497e95eb19b2b76/Desktop/Tesis general/Tesis Lenovo/Tesis-paper/Otros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2497e95eb19b2b76/Desktop/GABO/TESIS/Tesis-paper/Otros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00221B61-5C77-4F86-8D50-292FFBDF9A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{00221B61-5C77-4F86-8D50-292FFBDF9A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60ACE6EE-DA34-4F67-AE82-CB8746D324F9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{84744255-0708-4503-B46B-9547A2B13799}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{84744255-0708-4503-B46B-9547A2B13799}"/>
   </bookViews>
   <sheets>
     <sheet name="Data BEAR inicial" sheetId="1" r:id="rId1"/>
+    <sheet name="Tesis 2 pre parcial" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="106">
   <si>
     <t>2022q3</t>
   </si>
@@ -322,13 +323,34 @@
   </si>
   <si>
     <t>BZSCORE</t>
+  </si>
+  <si>
+    <t>USO</t>
+  </si>
+  <si>
+    <t>PROF</t>
+  </si>
+  <si>
+    <t>ACCESO</t>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>BANKCON</t>
+  </si>
+  <si>
+    <t>PBI</t>
+  </si>
+  <si>
+    <t>IPC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +365,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -364,19 +397,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{ABA39B70-7397-451C-BF50-AF30D1A783A4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -690,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BEDBCE-8DA6-46CA-8BCF-98BDD4EBC785}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -4524,4 +4569,4011 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2F61F6-DB52-48D8-A1E3-B03CB31567FC}">
+  <dimension ref="A1:O85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.4920957530999459</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-4.3162453082631558</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.34445750344014309</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-4.0757470961545925</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-2.3961005441781431</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.9999999999991624</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-4.6489678504235599</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1.5230214083645799E-2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2.7423071295642774</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1.4655622679768419</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.4476580418053755</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-5.0579912098746664</v>
+      </c>
+      <c r="N2" s="1">
+        <v>26.156667073567711</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-2.8144663182379555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16.842740511808341</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.9080843764848012</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.188378386868383</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-0.9811807974871023</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-7.055955403470815</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42.750000000000909</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-10.992687729110459</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.81773766561063255</v>
+      </c>
+      <c r="J3" s="7">
+        <v>4.7826075892347646</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.22285217859474202</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-0.64416989417873849</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-6.6334025146072468</v>
+      </c>
+      <c r="N3" s="1">
+        <v>27.06666692097982</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6.1738814818163661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-20.910214447653217</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.8754004687914669</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1205601262040501</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.0606994384013309</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-2.658960639229583</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-2.4868995751603511E-12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-15.910665263083731</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.54345356341411399</v>
+      </c>
+      <c r="J4" s="7">
+        <v>6.5250198560858719</v>
+      </c>
+      <c r="K4" s="7">
+        <v>-1.0107512675069825</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5.0924905459359291</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1.3927398662526045</v>
+      </c>
+      <c r="N4" s="1">
+        <v>20.026666641235352</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.9504458288125059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-48.84087539358584</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.121726751321761</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.8891500688028628E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15.382065363623591</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.0907410639116106</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.7500000000008535</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-22.600354397844281</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-7.9682381872174801E-3</v>
+      </c>
+      <c r="J5" s="7">
+        <v>6.6337362710486554</v>
+      </c>
+      <c r="K5" s="7">
+        <v>7.327522503492731E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.4488506612608507</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-2.8474029854140892</v>
+      </c>
+      <c r="N5" s="1">
+        <v>22.429999669392899</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6.9460337226650291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-44.567967845026772</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.4124487075575498</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.31001175309608442</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17.37474716673848</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.21594761151177747</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-21.916666666665922</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.5179019295876506</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.70656183521651261</v>
+      </c>
+      <c r="J6" s="7">
+        <v>4.0711359816414285</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.26633620075148284</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4.8978538448104594</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1.4970240216867583</v>
+      </c>
+      <c r="N6" s="1">
+        <v>34.78666559855143</v>
+      </c>
+      <c r="O6" s="1">
+        <v>7.2401389439593764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-26.666958323440682</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.2884746083183192</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.80947513308426977</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13.346440235518561</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.8327464299811742</v>
+      </c>
+      <c r="G7" s="1">
+        <v>29.916666666666643</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-25.262635516256299</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-1.071629572678847</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4.6362789854543403</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.4440342301598343</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.0471782980549005</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.79822239263206385</v>
+      </c>
+      <c r="N7" s="1">
+        <v>29.08666674296061</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5.9978877341686552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-10.41508654770384</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.6773993254312334</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.53390913033217746</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.4799699419510812</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.3213516966657855</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1.083333333333236</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.7422576054075307</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-1.3245071079299979</v>
+      </c>
+      <c r="J8" s="7">
+        <v>5.6431926197047364</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2.8276168059970628</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.95355715391000107</v>
+      </c>
+      <c r="M8" s="1">
+        <v>8.7282263955053772</v>
+      </c>
+      <c r="N8" s="1">
+        <v>29.983332951863609</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-2.3672885074556973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-9.6903354729881208</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.5175599625819647</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-8.6114375860035786E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.7734444260373561</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1.1466022235942974</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-8.7500000000000355</v>
+      </c>
+      <c r="H9" s="1">
+        <v>135.33560872050771</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.12754819290158539</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4.6467504288933377</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2.3933744376310946</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.015035858919807</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4.5158868856260579</v>
+      </c>
+      <c r="N9" s="1">
+        <v>20.066666285196941</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-1.0562070487594142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-6.0860776384654702</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.2669593240579839</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.91281238411633492</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.8015253311699544</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.2901302412539861</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-21.666666666666682</v>
+      </c>
+      <c r="H10" s="1">
+        <v>32.891315602740633</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.4976535341668011E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3.6766590906651624</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1.9486614614807864</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3.0238707676556693</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6.1718819299100192</v>
+      </c>
+      <c r="N10" s="1">
+        <v>20.27999941507975</v>
+      </c>
+      <c r="O10" s="1">
+        <v>7.6239688469081051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-37.393623217237632</v>
+      </c>
+      <c r="C11" s="1">
+        <v>14.168789886505609</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.3950528889324239</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20.35811527758387</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.9722077229263943</v>
+      </c>
+      <c r="G11" s="1">
+        <v>21.166666666666782</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-18.889259338350708</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.7327290484274731E-3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2.7794502673616059</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.8854064038906124</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.0222019515611209</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.9188579028828361</v>
+      </c>
+      <c r="N11" s="1">
+        <v>16.909999847412109</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7.5273677987504684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-14.084143440662741</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16.142727111226602</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.6372463813642204</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13.601480275616101</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.7509068585169261</v>
+      </c>
+      <c r="G12" s="1">
+        <v>21.666666666666501</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-6.3662983607582646</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.29969775610663069</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4.5743842405282766</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2.9930040109253206</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4.6817166356991917</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5.3869680489412692</v>
+      </c>
+      <c r="N12" s="1">
+        <v>15.973333040873211</v>
+      </c>
+      <c r="O12" s="1">
+        <v>26.320829098218663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.776555004836073</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.192879339640873</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.25834312758006289</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-2.3429666422245981</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.78411311212893342</v>
+      </c>
+      <c r="G13" s="1">
+        <v>17.416666666666639</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10.27065063034888</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.33348875877493178</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3.7379321352592378</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3.40616944006893</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3.14949596744477</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3.6231103055463993</v>
+      </c>
+      <c r="N13" s="1">
+        <v>15.6766668955485</v>
+      </c>
+      <c r="O13" s="1">
+        <v>20.018446405754649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-5.3375854227481696</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10.01831587153057</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.7222875172029358E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.6076969846739395</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.61373860203226582</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12.333333333333311</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.1135740792012712</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.22352200605888981</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4.2840582272885426</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4.4092931661983341</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3.0693798540716277</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.4385695419485174</v>
+      </c>
+      <c r="N14" s="1">
+        <v>14.649999936421709</v>
+      </c>
+      <c r="O14" s="1">
+        <v>6.9639582766877384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-27.019937792157613</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8.246108075197478</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.5166862551601481</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13.292861428684979</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.198810178176914</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-49.868340416355068</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.54987744007094408</v>
+      </c>
+      <c r="J15" s="7">
+        <v>7.2761700885110594</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3.8346207065367115</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.7489154005806213</v>
+      </c>
+      <c r="M15" s="1">
+        <v>11.774785117298432</v>
+      </c>
+      <c r="N15" s="1">
+        <v>14.26666673024496</v>
+      </c>
+      <c r="O15" s="1">
+        <v>6.9237537044790187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-3.7501931787160205</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10.6088499775603</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.67169213170823472</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7.7842449524874402</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-0.76615291978459643</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.416666666666579</v>
+      </c>
+      <c r="H16" s="1">
+        <v>60.496191745388607</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6.3262327621405934E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5.6261027255114371</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2.1941047837338008</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3.3705815175756366</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.439216348480683</v>
+      </c>
+      <c r="N16" s="1">
+        <v>12.97333335876465</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-2.6680677328847855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.67417864894174862</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-5.6531728846780149</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.29278887792412173</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-3.720146530444346</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-3.2156487755939414</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-12.999999999999901</v>
+      </c>
+      <c r="H17" s="1">
+        <v>36.326902579014359</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.36903882587712727</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5.4267745929046516</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1.7649455590770728</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3.230768971250463</v>
+      </c>
+      <c r="M17" s="1">
+        <v>8.8843147808204481</v>
+      </c>
+      <c r="N17" s="1">
+        <v>13.54666678110758</v>
+      </c>
+      <c r="O17" s="1">
+        <v>4.7234925064410227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-8.0103858400878849</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11.428051349183601</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.43057187930013452</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9.4442990575033363</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-4.0864897406360052</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-10.99999999999994</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-24.948005718431201</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-3.6724204837154328E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6.4676928404673459</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1.2441413243703252</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3.792023637502103</v>
+      </c>
+      <c r="M18" s="1">
+        <v>11.605579979528953</v>
+      </c>
+      <c r="N18" s="1">
+        <v>12.030000050862631</v>
+      </c>
+      <c r="O18" s="1">
+        <v>9.9937481535950425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-19.4827796538051</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.9380096416862562</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.739510392372567</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.8133578186039827</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-8.7575362143816413</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-43.750000000000178</v>
+      </c>
+      <c r="H19" s="1">
+        <v>7.8583456791272974</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-0.24656667653873221</v>
+      </c>
+      <c r="J19" s="7">
+        <v>7.5972867638935595</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1.2791837659861194</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4.233009446699576</v>
+      </c>
+      <c r="M19" s="1">
+        <v>20.77947984658919</v>
+      </c>
+      <c r="N19" s="1">
+        <v>13.149999936421709</v>
+      </c>
+      <c r="O19" s="1">
+        <v>16.118040428636661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-10.3422354230472</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.8729987096728067</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.6533960165125761</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.9800624857245701</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-10.802326712554775</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-21.083333333333172</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-0.61275719781360749</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-8.8379434461520301E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>8.2838063083923004</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2.3666514104468126</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5.7604310121266096</v>
+      </c>
+      <c r="M20" s="1">
+        <v>25.013618355069372</v>
+      </c>
+      <c r="N20" s="1">
+        <v>12.226666768391929</v>
+      </c>
+      <c r="O20" s="1">
+        <v>20.024847631877059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.3749813300215306</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-1.26028960271789</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.7222875171984949E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-1.760687276593687</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-11.578751981486416</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8.9999999999999858</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19.410179781849589</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4.3868677394822697E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>6.3294693668823276</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2.3188143356956492</v>
+      </c>
+      <c r="L21" s="1">
+        <v>6.2579428279335252</v>
+      </c>
+      <c r="M21" s="1">
+        <v>19.049912074828391</v>
+      </c>
+      <c r="N21" s="1">
+        <v>13.70333353678385</v>
+      </c>
+      <c r="O21" s="1">
+        <v>32.606865478160927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.0551194785017892</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.1003868843751468</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.99892675997630409</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.1908740316450079</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-5.8648094302702107</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-6.8333333333333357</v>
+      </c>
+      <c r="H22" s="1">
+        <v>46.885955113359387</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-9.7968218301484278E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>8.2945966007238905</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1.80364651085544</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6.3393353540369475</v>
+      </c>
+      <c r="M22" s="1">
+        <v>16.952230475232263</v>
+      </c>
+      <c r="N22" s="1">
+        <v>13.079999923706049</v>
+      </c>
+      <c r="O22" s="1">
+        <v>31.741310929407273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-8.6303914292000012</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-0.85360600813055854</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.7567332675445972</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.888891287683315</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.31006581415472068</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-0.41666666666646524</v>
+      </c>
+      <c r="H23" s="1">
+        <v>17.432987986853728</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-1.160469781719708E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>7.3242176681421123</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1.5209160110268711</v>
+      </c>
+      <c r="L23" s="1">
+        <v>6.4715982089548598</v>
+      </c>
+      <c r="M23" s="1">
+        <v>18.322044067927994</v>
+      </c>
+      <c r="N23" s="1">
+        <v>11.19000021616618</v>
+      </c>
+      <c r="O23" s="1">
+        <v>23.305414840476178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-8.0536919034353343</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.4555889491042127</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.8417744033809371</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7.5875851558962424</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.6991166756117151</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.9166666666665009</v>
+      </c>
+      <c r="H24" s="1">
+        <v>11.03981887182454</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-1.0588219532028149</v>
+      </c>
+      <c r="J24" s="7">
+        <v>5.286799966117238</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.41472333129084926</v>
+      </c>
+      <c r="L24" s="1">
+        <v>7.5482049718383877</v>
+      </c>
+      <c r="M24" s="1">
+        <v>11.754756453505276</v>
+      </c>
+      <c r="N24" s="1">
+        <v>13.493333498636879</v>
+      </c>
+      <c r="O24" s="1">
+        <v>18.487749217431865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-6.3107954667571464</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.6098832145114261</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.84392088342823968</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.2473022484192651</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.91165602299962367</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-12.833333333333391</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-3.0831456362298009</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.613719119244243</v>
+      </c>
+      <c r="J25" s="7">
+        <v>6.3331156249389471</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.79987895882126481</v>
+      </c>
+      <c r="L25" s="1">
+        <v>9.0281920169146748</v>
+      </c>
+      <c r="M25" s="1">
+        <v>21.022656389628846</v>
+      </c>
+      <c r="N25" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="O25" s="1">
+        <v>5.1081408263339023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.2628084260299062</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.3821956621016733</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.325088148220789</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.7085360505425982</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-4.9593402869981977</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-18.99999999999995</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-33.89826049784665</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.0775164059229601</v>
+      </c>
+      <c r="J26" s="7">
+        <v>10.8415978967369</v>
+      </c>
+      <c r="K26" s="7">
+        <v>2.4038995120754874</v>
+      </c>
+      <c r="L26" s="1">
+        <v>8.3777112544760559</v>
+      </c>
+      <c r="M26" s="1">
+        <v>27.99880642927447</v>
+      </c>
+      <c r="N26" s="1">
+        <v>21.633333206176761</v>
+      </c>
+      <c r="O26" s="1">
+        <v>-0.38752527437464562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-13.473782207537571</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-15.325862272997659</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.8600705185765949</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-4.2691171479343808</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-8.5398991024843873</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.916666666666679</v>
+      </c>
+      <c r="H27" s="1">
+        <v>42.438675687628802</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.0321928106865239</v>
+      </c>
+      <c r="J27" s="7">
+        <v>11.424368666241914</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3.4971352045503687</v>
+      </c>
+      <c r="L27" s="1">
+        <v>9.6020775794829838</v>
+      </c>
+      <c r="M27" s="1">
+        <v>26.182457401037922</v>
+      </c>
+      <c r="N27" s="1">
+        <v>21.300000508626301</v>
+      </c>
+      <c r="O27" s="1">
+        <v>-3.8326708496441784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-1.7928910321619811</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.7359416572209958</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.1830121867499921</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.4141075497575288</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-7.3618125857537198</v>
+      </c>
+      <c r="G28" s="1">
+        <v>11.83333333333305</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-4.3854699009523301</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.58930031509186698</v>
+      </c>
+      <c r="J28" s="7">
+        <v>10.14557764841504</v>
+      </c>
+      <c r="K28" s="7">
+        <v>4.8397917886962931</v>
+      </c>
+      <c r="L28" s="1">
+        <v>8.7000000000000064</v>
+      </c>
+      <c r="M28" s="1">
+        <v>25.912798360508514</v>
+      </c>
+      <c r="N28" s="1">
+        <v>26.116667429606121</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-2.5635003767240558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-4.1521433514811523</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.7077571975066106</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.4617979095731277</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5.0549254058431137</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-8.6376790479872163</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4.0833333333333499</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-30.13698079277879</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2.0315818017517082</v>
+      </c>
+      <c r="J29" s="7">
+        <v>10.532292250858745</v>
+      </c>
+      <c r="K29" s="7">
+        <v>5.5394193531395537</v>
+      </c>
+      <c r="L29" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>34.018929762317363</v>
+      </c>
+      <c r="N29" s="1">
+        <v>20.856667200724289</v>
+      </c>
+      <c r="O29" s="1">
+        <v>-11.241454046814532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-7.7340141719415278</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-2.2223823676950532</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.2368272923133716</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.938027343197064</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-4.9517080390868911</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.5000000000000571</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-17.103558080146058</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.3581571981668179</v>
+      </c>
+      <c r="J30" s="7">
+        <v>9.5794848234252132</v>
+      </c>
+      <c r="K30" s="7">
+        <v>6.0940203541851767</v>
+      </c>
+      <c r="L30" s="1">
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="M30" s="1">
+        <v>28.654112838408569</v>
+      </c>
+      <c r="N30" s="1">
+        <v>27.659999847412109</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-13.387166127833838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.368036488179825</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-3.6506240470686726</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.9601880495376172</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.32051721471207378</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-8.3930770729483957</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-26.500000000000064</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6.1315444803401533</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.19967636752922319</v>
+      </c>
+      <c r="J31" s="7">
+        <v>6.4841985836639138</v>
+      </c>
+      <c r="K31" s="7">
+        <v>6.6458125589804542</v>
+      </c>
+      <c r="L31" s="1">
+        <v>5</v>
+      </c>
+      <c r="M31" s="1">
+        <v>12.987930009277134</v>
+      </c>
+      <c r="N31" s="1">
+        <v>51.723332722981773</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-22.371641851925204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5.3467751097606042</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.153299444814639</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-0.75780650756825396</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-6.7477651662709026E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-2.8095648885091493</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-0.75000000000002842</v>
+      </c>
+      <c r="H32" s="1">
+        <v>19.171304979395249</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-0.52450378314356882</v>
+      </c>
+      <c r="J32" s="7">
+        <v>2.5940452211454281</v>
+      </c>
+      <c r="K32" s="7">
+        <v>5.5926565909413331</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3.4999999999999929</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2.6009413104865113</v>
+      </c>
+      <c r="N32" s="1">
+        <v>45.109999338785798</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-19.132790449536763</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15.432414205198219</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-0.42438887155886174</v>
+      </c>
+      <c r="D33" s="1">
+        <v>17.515664049929711</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3.142829604363552</v>
+      </c>
+      <c r="F33" s="1">
+        <v>13.362689558571098</v>
+      </c>
+      <c r="G33" s="1">
+        <v>24.416666666666838</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-1.739828186715386</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-1.7409901974237481</v>
+      </c>
+      <c r="J33" s="7">
+        <v>-0.73358255127595351</v>
+      </c>
+      <c r="K33" s="7">
+        <v>3.9647372538330878</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.0999999999999954</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-10.918177078827874</v>
+      </c>
+      <c r="N33" s="1">
+        <v>30.590000152587891</v>
+      </c>
+      <c r="O33" s="1">
+        <v>-8.4363920659229699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4.2217422507982878</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8.336645633715051</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7.7847395777465387</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7.2914440539309915</v>
+      </c>
+      <c r="F34" s="1">
+        <v>15.72682813925873</v>
+      </c>
+      <c r="G34" s="1">
+        <v>56.166666666666565</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.25372753281794758</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-1.5500156037732959</v>
+      </c>
+      <c r="J34" s="7">
+        <v>-0.10054478987566778</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1.9151156399430991</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3.100000000000005</v>
+      </c>
+      <c r="M34" s="1">
+        <v>-5.0229507231625838</v>
+      </c>
+      <c r="N34" s="1">
+        <v>25.846666971842449</v>
+      </c>
+      <c r="O34" s="1">
+        <v>7.9333961464032363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.4725314304635648</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.4502871154456529</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.4445750344011197</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.704964867995876</v>
+      </c>
+      <c r="F35" s="1">
+        <v>24.19915239634863</v>
+      </c>
+      <c r="G35" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-5.2463402783985202</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-1.0582778055807529</v>
+      </c>
+      <c r="J35" s="7">
+        <v>2.7282531215877031</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.41445907728790193</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4.6999999999999975</v>
+      </c>
+      <c r="M35" s="1">
+        <v>7.2606548707815399</v>
+      </c>
+      <c r="N35" s="1">
+        <v>25.626667022705082</v>
+      </c>
+      <c r="O35" s="1">
+        <v>34.091999964571883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5.6852075585482336</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-0.41389856307447737</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.860070518576604</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-1.103117208342719</v>
+      </c>
+      <c r="F36" s="1">
+        <v>18.372934808967749</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-4.9166666666666359</v>
+      </c>
+      <c r="H36" s="1">
+        <v>19.124003465677109</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3.735733987161701</v>
+      </c>
+      <c r="J36" s="7">
+        <v>5.4824259119162111</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.67537698511648858</v>
+      </c>
+      <c r="L36" s="1">
+        <v>6.800000000000006</v>
+      </c>
+      <c r="M36" s="1">
+        <v>15.78799740031068</v>
+      </c>
+      <c r="N36" s="1">
+        <v>20.570000330607101</v>
+      </c>
+      <c r="O36" s="1">
+        <v>25.336017435007179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7.6792125375345188</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-7.0290123242490736</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.2906423978767463</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-5.4637932112616188</v>
+      </c>
+      <c r="F37" s="1">
+        <v>8.5487966439366314</v>
+      </c>
+      <c r="G37" s="1">
+        <v>33.333333333333208</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.20391830606376971</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.21738888769520409</v>
+      </c>
+      <c r="J37" s="7">
+        <v>9.4153097054368899</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1.1493318969078776</v>
+      </c>
+      <c r="L37" s="1">
+        <v>9.4000000000000092</v>
+      </c>
+      <c r="M37" s="1">
+        <v>32.706682309976749</v>
+      </c>
+      <c r="N37" s="1">
+        <v>29.5533332824707</v>
+      </c>
+      <c r="O37" s="1">
+        <v>22.683286207540789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-11.922915015381321</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10.31469799700594</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.29171563790042</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10.348947992358799</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-0.53216419678998217</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.9999999999999569</v>
+      </c>
+      <c r="H38" s="1">
+        <v>-15.53824653147421</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2.056568336221865</v>
+      </c>
+      <c r="J38" s="7">
+        <v>9.5693194744670453</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2.1655258388021812</v>
+      </c>
+      <c r="L38" s="1">
+        <v>10.599999999999998</v>
+      </c>
+      <c r="M38" s="1">
+        <v>26.236970544833426</v>
+      </c>
+      <c r="N38" s="1">
+        <v>24.416666666666671</v>
+      </c>
+      <c r="O38" s="1">
+        <v>18.104877503383918</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-8.1088225763330417</v>
+      </c>
+      <c r="C39" s="1">
+        <v>9.9130583713659632</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.5328358903085</v>
+      </c>
+      <c r="E39" s="1">
+        <v>9.0728644186487184</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-4.5213858451153648</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-10.99999999999994</v>
+      </c>
+      <c r="H39" s="1">
+        <v>20.727528028886809</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.49794629070422</v>
+      </c>
+      <c r="J39" s="7">
+        <v>8.6678130518983583</v>
+      </c>
+      <c r="K39" s="7">
+        <v>2.1296786274703856</v>
+      </c>
+      <c r="L39" s="1">
+        <v>9.4000000000000021</v>
+      </c>
+      <c r="M39" s="1">
+        <v>18.99956382805259</v>
+      </c>
+      <c r="N39" s="1">
+        <v>20.83000055948893</v>
+      </c>
+      <c r="O39" s="1">
+        <v>10.490527679035941</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-7.1715289288630801</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.5234368579855682</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.58343127580084</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4.252233858667986</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-4.5576999514165006</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-4.3333333333333002</v>
+      </c>
+      <c r="H40" s="1">
+        <v>-5.3935632364696184</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.24951619857681001</v>
+      </c>
+      <c r="J40" s="7">
+        <v>8.4138580505209646</v>
+      </c>
+      <c r="K40" s="7">
+        <v>2.3570265386265286</v>
+      </c>
+      <c r="L40" s="1">
+        <v>9.3999999999999204</v>
+      </c>
+      <c r="M40" s="1">
+        <v>9.6476765701213534</v>
+      </c>
+      <c r="N40" s="1">
+        <v>18.540000279744461</v>
+      </c>
+      <c r="O40" s="1">
+        <v>15.988133751076909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-0.87031068479661577</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-2.0638656508522208</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.68891500688022234</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-0.65754422608518837</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-7.6988788484549611</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2.2499999999999081</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-0.31686789779860192</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-0.85828394836304156</v>
+      </c>
+      <c r="J41" s="7">
+        <v>5.2846391413901985</v>
+      </c>
+      <c r="K41" s="7">
+        <v>3.1041692295976455</v>
+      </c>
+      <c r="L41" s="1">
+        <v>8.8000000000000593</v>
+      </c>
+      <c r="M41" s="1">
+        <v>3.5074215665460899</v>
+      </c>
+      <c r="N41" s="1">
+        <v>15.573333422342939</v>
+      </c>
+      <c r="O41" s="1">
+        <v>9.631708697419155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.4015662121083432</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3.4388743824108738</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.6856952868091994</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2.425896533646271</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-2.6312378908743677</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-12.249999999999869</v>
+      </c>
+      <c r="H42" s="1">
+        <v>17.440351305407152</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.90474884141667999</v>
+      </c>
+      <c r="J42" s="7">
+        <v>5.8115495705444227</v>
+      </c>
+      <c r="K42" s="7">
+        <v>3.4749576828939803</v>
+      </c>
+      <c r="L42" s="1">
+        <v>5.4000000000000554</v>
+      </c>
+      <c r="M42" s="1">
+        <v>2.3769717359658049</v>
+      </c>
+      <c r="N42" s="1">
+        <v>33.276666641235352</v>
+      </c>
+      <c r="O42" s="1">
+        <v>7.4806804999483054</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-6.1334804938805609</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.96761420935085607</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.9278887792409591</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3.7656234346673765</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4.0912748610325425</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-7.0000000000000284</v>
+      </c>
+      <c r="H43" s="1">
+        <v>-6.0719564382270619</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-2.2488860292826161</v>
+      </c>
+      <c r="J43" s="7">
+        <v>6.0142222877523341</v>
+      </c>
+      <c r="K43" s="7">
+        <v>4.5270898222394305</v>
+      </c>
+      <c r="L43" s="1">
+        <v>5.4999999999999973</v>
+      </c>
+      <c r="M43" s="1">
+        <v>8.68431581570891</v>
+      </c>
+      <c r="N43" s="1">
+        <v>27.053332646687821</v>
+      </c>
+      <c r="O43" s="1">
+        <v>-1.2246498659226115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-5.9177097955087632E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7.057287788676728</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.7222875172001609E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4.2492054998541917</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4.1665339498461096</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-12.083333333333361</v>
+      </c>
+      <c r="H44" s="1">
+        <v>-2.4261444341018432</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-9.9142172283229968E-2</v>
+      </c>
+      <c r="J44" s="7">
+        <v>6.1106152672996714</v>
+      </c>
+      <c r="K44" s="7">
+        <v>4.2075686551946205</v>
+      </c>
+      <c r="L44" s="1">
+        <v>7.6600000000000872</v>
+      </c>
+      <c r="M44" s="1">
+        <v>17.496591103245589</v>
+      </c>
+      <c r="N44" s="1">
+        <v>17.790000279744461</v>
+      </c>
+      <c r="O44" s="1">
+        <v>-4.3629408447390343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.278320825093693</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4.3290574429416688</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.566208400628839</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3.3837837247946978</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5.1845381359831171</v>
+      </c>
+      <c r="G45" s="1">
+        <v>72.58333333333357</v>
+      </c>
+      <c r="H45" s="1">
+        <v>-1.19986840861975</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.595551599164843</v>
+      </c>
+      <c r="J45" s="7">
+        <v>5.8942361752040044</v>
+      </c>
+      <c r="K45" s="7">
+        <v>4.073414355623413</v>
+      </c>
+      <c r="L45" s="1">
+        <v>6.859999999999987</v>
+      </c>
+      <c r="M45" s="1">
+        <v>18.059170283170594</v>
+      </c>
+      <c r="N45" s="1">
+        <v>19.429999669392899</v>
+      </c>
+      <c r="O45" s="1">
+        <v>-6.2844243456448607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4.6676576215159642</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.5740418594756465</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4.7018449219575258</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2.8929576154935521</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3.9905554768898885</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-17.166666666666693</v>
+      </c>
+      <c r="H46" s="1">
+        <v>4.4192614001076443E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.24776216889781111</v>
+      </c>
+      <c r="J46" s="7">
+        <v>7.0204903360840065</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3.5148736111033543</v>
+      </c>
+      <c r="L46" s="1">
+        <v>6.8999999999999604</v>
+      </c>
+      <c r="M46" s="1">
+        <v>16.407993264198264</v>
+      </c>
+      <c r="N46" s="1">
+        <v>17.376666386922199</v>
+      </c>
+      <c r="O46" s="1">
+        <v>-3.9796772486799212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-1.604858537330867</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.4229641452408428</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.7890325378412295</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4.8674754572871954</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-1.0907054590506822</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-38.833333333333357</v>
+      </c>
+      <c r="H47" s="1">
+        <v>4.6348419916421344</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.57247706247754593</v>
+      </c>
+      <c r="J47" s="7">
+        <v>5.5569814967469</v>
+      </c>
+      <c r="K47" s="7">
+        <v>2.8518488790720165</v>
+      </c>
+      <c r="L47" s="1">
+        <v>8.400000000000011</v>
+      </c>
+      <c r="M47" s="1">
+        <v>14.185011408681872</v>
+      </c>
+      <c r="N47" s="1">
+        <v>17.49666690826416</v>
+      </c>
+      <c r="O47" s="1">
+        <v>2.7084410471776272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4.5935934210353357</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.0076516522658081</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.73736391232522</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.1338143588152891</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-2.7780414047468134</v>
+      </c>
+      <c r="G48" s="1">
+        <v>14.50000000000014</v>
+      </c>
+      <c r="H48" s="1">
+        <v>-0.23003781822626479</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2.1349105526930359</v>
+      </c>
+      <c r="J48" s="7">
+        <v>4.9782284772047003</v>
+      </c>
+      <c r="K48" s="7">
+        <v>2.6364762152801253</v>
+      </c>
+      <c r="L48" s="1">
+        <v>5.6128538638102183</v>
+      </c>
+      <c r="M48" s="1">
+        <v>12.455843716480608</v>
+      </c>
+      <c r="N48" s="1">
+        <v>14.16333325703939</v>
+      </c>
+      <c r="O48" s="1">
+        <v>-2.7766069999407312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3.7825099979474808</v>
+      </c>
+      <c r="C49" s="1">
+        <v>8.4601028752076974</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.6350999013168512</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5.1350251942373193</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-2.828619949631622</v>
+      </c>
+      <c r="G49" s="1">
+        <v>42.083333333333428</v>
+      </c>
+      <c r="H49" s="1">
+        <v>-10.562215896267389</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-0.59820975408131005</v>
+      </c>
+      <c r="J49" s="7">
+        <v>6.2640253903535221</v>
+      </c>
+      <c r="K49" s="7">
+        <v>2.5141485015788825</v>
+      </c>
+      <c r="L49" s="1">
+        <v>5.7433313059343893</v>
+      </c>
+      <c r="M49" s="1">
+        <v>13.234856691786426</v>
+      </c>
+      <c r="N49" s="1">
+        <v>15.56000010172526</v>
+      </c>
+      <c r="O49" s="1">
+        <v>-5.5298758585685812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4.5414424254122121</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.1344894876591201</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3.3067920330250735</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.0278780403915291</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-5.2266342109402109</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-13.000000000000082</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1.053494826235237</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-0.96300300771160607</v>
+      </c>
+      <c r="J50" s="7">
+        <v>5.2266472408238212</v>
+      </c>
+      <c r="K50" s="7">
+        <v>3.1154498352894877</v>
+      </c>
+      <c r="L50" s="1">
+        <v>5.5192921380911271</v>
+      </c>
+      <c r="M50" s="1">
+        <v>7.0535492157065391</v>
+      </c>
+      <c r="N50" s="1">
+        <v>15.6866668065389</v>
+      </c>
+      <c r="O50" s="1">
+        <v>-6.631131558098879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.82505352167906443</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-2.541351516669077</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2.3939796489087732</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-0.6706729075977913</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-1.8822446575598082</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-36.833333333333229</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3.598767186395889</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-1.487291242993557</v>
+      </c>
+      <c r="J51" s="7">
+        <v>6.8441026947934791</v>
+      </c>
+      <c r="K51" s="7">
+        <v>2.9510619590607408</v>
+      </c>
+      <c r="L51" s="1">
+        <v>6.0533757511488648</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1.1109863043634065</v>
+      </c>
+      <c r="N51" s="1">
+        <v>13.72333335876465</v>
+      </c>
+      <c r="O51" s="1">
+        <v>-11.708114413921779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4.5629817352630724</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.9807783127601559</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.2551234075090529</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.3072498534915991</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.35194165489883067</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.99999999999980105</v>
+      </c>
+      <c r="H52" s="1">
+        <v>-8.6805461478434154E-4</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-0.70024280329841204</v>
+      </c>
+      <c r="J52" s="7">
+        <v>4.9553427505522984</v>
+      </c>
+      <c r="K52" s="7">
+        <v>3.4077593531931716</v>
+      </c>
+      <c r="L52" s="1">
+        <v>4.9726158393461821</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.15962886937593007</v>
+      </c>
+      <c r="N52" s="1">
+        <v>15.42999998728434</v>
+      </c>
+      <c r="O52" s="1">
+        <v>-10.046785671721127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3.7812511179371677</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.6744477711481349</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.84392088342828409</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.25277161530456999</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5.4748695475010623</v>
+      </c>
+      <c r="G53" s="1">
+        <v>31.583333333333393</v>
+      </c>
+      <c r="H53" s="1">
+        <v>-5.4034856525190662</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-0.72853510076079075</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1.9589217068161504</v>
+      </c>
+      <c r="K53" s="7">
+        <v>3.5094229637683529</v>
+      </c>
+      <c r="L53" s="1">
+        <v>4.2371952889620559</v>
+      </c>
+      <c r="M53" s="1">
+        <v>-2.1883161801209567</v>
+      </c>
+      <c r="N53" s="1">
+        <v>12.126666386922199</v>
+      </c>
+      <c r="O53" s="1">
+        <v>-5.2178997285761559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5.3525370474660221</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.0977158101308842</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.7739561427165711</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-0.13799262854419242</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6.5562517303584436</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-7.2499999999999787</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.6068872829710017</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.43159795693783559</v>
+      </c>
+      <c r="J54" s="7">
+        <v>1.8231899988739384</v>
+      </c>
+      <c r="K54" s="7">
+        <v>2.917401933509816</v>
+      </c>
+      <c r="L54" s="1">
+        <v>3.5081448896831589</v>
+      </c>
+      <c r="M54" s="1">
+        <v>-3.9348474775986917</v>
+      </c>
+      <c r="N54" s="1">
+        <v>15.11666679382324</v>
+      </c>
+      <c r="O54" s="1">
+        <v>-4.4667312057792188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="1">
+        <v>-1.200803451507459</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.0312007158637231</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.1367097613523609</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1.4994840654918411</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4.7817353354749637</v>
+      </c>
+      <c r="G55" s="1">
+        <v>10.49999999999986</v>
+      </c>
+      <c r="H55" s="1">
+        <v>9.398026160419704</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.36479220367170129</v>
+      </c>
+      <c r="J55" s="7">
+        <v>1.0686630238372852</v>
+      </c>
+      <c r="K55" s="7">
+        <v>3.1570546893855087</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2.9261450434685208</v>
+      </c>
+      <c r="M55" s="1">
+        <v>-2.5381870537941063</v>
+      </c>
+      <c r="N55" s="1">
+        <v>15.520000139872231</v>
+      </c>
+      <c r="O55" s="1">
+        <v>-0.46390133297379854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1">
+        <v>-1.9663988639698431</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.0755699801224829</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.7901057778649148</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3.7115306223105771</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.617792156180438</v>
+      </c>
+      <c r="G56" s="1">
+        <v>-10.749999999999989</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2.5657051708249128</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.70334247503817693</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1.9308438525956064</v>
+      </c>
+      <c r="K56" s="7">
+        <v>2.9538928751910918</v>
+      </c>
+      <c r="L56" s="1">
+        <v>3.5978967416056746</v>
+      </c>
+      <c r="M56" s="1">
+        <v>-6.7905353724028146</v>
+      </c>
+      <c r="N56" s="1">
+        <v>16.533333142598469</v>
+      </c>
+      <c r="O56" s="1">
+        <v>-5.0281804748232712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4.3916870655615732</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.9789549200539782</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.93003525928829767</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.88950640403104853</v>
+      </c>
+      <c r="F57" s="1">
+        <v>-0.34647377690676873</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5.833333333333357</v>
+      </c>
+      <c r="H57" s="1">
+        <v>-18.168585080686402</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-0.38317876557965752</v>
+      </c>
+      <c r="J57" s="7">
+        <v>3.1760250383307262</v>
+      </c>
+      <c r="K57" s="7">
+        <v>3.3098518682693978</v>
+      </c>
+      <c r="L57" s="1">
+        <v>3.8648993050537412</v>
+      </c>
+      <c r="M57" s="1">
+        <v>-8.5017594619090282</v>
+      </c>
+      <c r="N57" s="1">
+        <v>15.539999961853029</v>
+      </c>
+      <c r="O57" s="1">
+        <v>-1.9172100310231022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="1">
+        <v>-4.3155940520844824</v>
+      </c>
+      <c r="C58" s="1">
+        <v>-3.2308246462502743</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-3.4445750344014307E-2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-0.65227331730686178</v>
+      </c>
+      <c r="F58" s="1">
+        <v>-3.1610323102233524</v>
+      </c>
+      <c r="G58" s="1">
+        <v>6.9166666666669485</v>
+      </c>
+      <c r="H58" s="1">
+        <v>-3.3890744431805619</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-0.24079045552029041</v>
+      </c>
+      <c r="J58" s="7">
+        <v>3.1557482084873199</v>
+      </c>
+      <c r="K58" s="7">
+        <v>3.8366758558664489</v>
+      </c>
+      <c r="L58" s="1">
+        <v>4.2652643879636933</v>
+      </c>
+      <c r="M58" s="1">
+        <v>-4.3027130357783019</v>
+      </c>
+      <c r="N58" s="1">
+        <v>21.683333396911621</v>
+      </c>
+      <c r="O58" s="1">
+        <v>-11.916104482282185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-4.7441984823881516</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3.071571943516294</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.37890325378412409</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3.4379065417469601</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-5.3705762037309706</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-10.166666666666831</v>
+      </c>
+      <c r="H59" s="1">
+        <v>-6.9756202187993486</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.5859978473371541</v>
+      </c>
+      <c r="J59" s="7">
+        <v>4.6172313228726294</v>
+      </c>
+      <c r="K59" s="7">
+        <v>4.0769370607665989</v>
+      </c>
+      <c r="L59" s="1">
+        <v>4.1958985429033886</v>
+      </c>
+      <c r="M59" s="1">
+        <v>-0.50013134475463905</v>
+      </c>
+      <c r="N59" s="1">
+        <v>16.469999313354489</v>
+      </c>
+      <c r="O59" s="1">
+        <v>-11.607242722317922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4.7272754102038288</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2.8403523634686008</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2.0667450206406701</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1.227144192157215</v>
+      </c>
+      <c r="F60" s="1">
+        <v>-1.7484837000578086</v>
+      </c>
+      <c r="G60" s="1">
+        <v>-16.000000000000007</v>
+      </c>
+      <c r="H60" s="1">
+        <v>7.8207870203809762</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-0.34965558762127458</v>
+      </c>
+      <c r="J60" s="7">
+        <v>4.4790169227455712</v>
+      </c>
+      <c r="K60" s="7">
+        <v>4.4606191513008797</v>
+      </c>
+      <c r="L60" s="1">
+        <v>3.775344363626655</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.46811318588533918</v>
+      </c>
+      <c r="N60" s="1">
+        <v>18.23333326975505</v>
+      </c>
+      <c r="O60" s="1">
+        <v>-1.2132793390602066</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4.424109617100525</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4.9769750965018789</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.241120252408078</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1.759472343704882</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2.596793701024346</v>
+      </c>
+      <c r="G61" s="1">
+        <v>29.08333333333335</v>
+      </c>
+      <c r="H61" s="1">
+        <v>9.1452228338994246E-2</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-0.93999633744441624</v>
+      </c>
+      <c r="J61" s="7">
+        <v>3.7354811627106201</v>
+      </c>
+      <c r="K61" s="7">
+        <v>3.5956189451883427</v>
+      </c>
+      <c r="L61" s="1">
+        <v>3.407409281206196</v>
+      </c>
+      <c r="M61" s="1">
+        <v>-2.4634423037975726</v>
+      </c>
+      <c r="N61" s="1">
+        <v>15.17333316802979</v>
+      </c>
+      <c r="O61" s="1">
+        <v>-4.4351369731164079</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.661537885236924</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.58072418167048889</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-1.6533960165125432</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-0.91030368989439836</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7.4943297993589066</v>
+      </c>
+      <c r="G62" s="1">
+        <v>30.250000000000021</v>
+      </c>
+      <c r="H62" s="1">
+        <v>-14.48617985263445</v>
+      </c>
+      <c r="I62" s="1">
+        <v>9.6707164766328901E-2</v>
+      </c>
+      <c r="J62" s="7">
+        <v>4.6118421919878134</v>
+      </c>
+      <c r="K62" s="7">
+        <v>3.0104584260192522</v>
+      </c>
+      <c r="L62" s="1">
+        <v>4.1799332637102431</v>
+      </c>
+      <c r="M62" s="1">
+        <v>-5.9780625741328297</v>
+      </c>
+      <c r="N62" s="1">
+        <v>12.859999974568691</v>
+      </c>
+      <c r="O62" s="1">
+        <v>6.4946581742571325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.14483310127232921</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-3.8436525815873526</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4.3918331688614245</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-0.32912674055787239</v>
+      </c>
+      <c r="F63" s="1">
+        <v>13.14393357019803</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-2.7500000000003411</v>
+      </c>
+      <c r="H63" s="1">
+        <v>-0.4907119141792009</v>
+      </c>
+      <c r="I63" s="1">
+        <v>-0.44401057380598979</v>
+      </c>
+      <c r="J63" s="7">
+        <v>3.0697152511552783</v>
+      </c>
+      <c r="K63" s="7">
+        <v>3.3297067815284138</v>
+      </c>
+      <c r="L63" s="1">
+        <v>3.436488411239131</v>
+      </c>
+      <c r="M63" s="1">
+        <v>-7.0207283021747928</v>
+      </c>
+      <c r="N63" s="1">
+        <v>14.80999978383382</v>
+      </c>
+      <c r="O63" s="1">
+        <v>11.815873910518619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3.0452640634644759</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3.1274038063173748</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3.4273521592290912</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2.5286197759620821</v>
+      </c>
+      <c r="F64" s="1">
+        <v>14.827745180941326</v>
+      </c>
+      <c r="G64" s="1">
+        <v>-0.74999999999967326</v>
+      </c>
+      <c r="H64" s="1">
+        <v>4.069354972960582</v>
+      </c>
+      <c r="I64" s="1">
+        <v>-1.9672165404171049</v>
+      </c>
+      <c r="J64" s="7">
+        <v>2.2830213670640886</v>
+      </c>
+      <c r="K64" s="7">
+        <v>3.4416004422233892</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2.2426187419769326</v>
+      </c>
+      <c r="M64" s="1">
+        <v>-7.5129163688737846</v>
+      </c>
+      <c r="N64" s="1">
+        <v>12.426666577657061</v>
+      </c>
+      <c r="O64" s="1">
+        <v>6.1761340793099215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.948539064845312</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6.7361726405317013</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-0.58557775584819893</v>
+      </c>
+      <c r="E65" s="1">
+        <v>3.177084934855201</v>
+      </c>
+      <c r="F65" s="1">
+        <v>11.033540111846461</v>
+      </c>
+      <c r="G65" s="1">
+        <v>28.583333333333272</v>
+      </c>
+      <c r="H65" s="1">
+        <v>-13.266643170885351</v>
+      </c>
+      <c r="I65" s="1">
+        <v>-1.3342429815196</v>
+      </c>
+      <c r="J65" s="7">
+        <v>2.6481076996821451</v>
+      </c>
+      <c r="K65" s="7">
+        <v>3.1550813489796394</v>
+      </c>
+      <c r="L65" s="1">
+        <v>2.9269664982814589</v>
+      </c>
+      <c r="M65" s="1">
+        <v>-3.9889167916352775</v>
+      </c>
+      <c r="N65" s="1">
+        <v>10.8033332824707</v>
+      </c>
+      <c r="O65" s="1">
+        <v>5.7454168454780286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.6775458305975539</v>
+      </c>
+      <c r="C66" s="1">
+        <v>-0.24329620320440171</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.050595385492392</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-0.16784703080785499</v>
+      </c>
+      <c r="F66" s="1">
+        <v>11.172507470473001</v>
+      </c>
+      <c r="G66" s="1">
+        <v>28.333333333333321</v>
+      </c>
+      <c r="H66" s="1">
+        <v>-13.864661911592069</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1.1690725572597029</v>
+      </c>
+      <c r="J66" s="7">
+        <v>2.8146880887489734</v>
+      </c>
+      <c r="K66" s="7">
+        <v>2.9904248715694397</v>
+      </c>
+      <c r="L66" s="1">
+        <v>2.6332518337408581</v>
+      </c>
+      <c r="M66" s="1">
+        <v>5.2573877609129722</v>
+      </c>
+      <c r="N66" s="1">
+        <v>10.12000020345052</v>
+      </c>
+      <c r="O66" s="1">
+        <v>9.7777611423939845</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5.3901207987645003</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.448404334731612</v>
+      </c>
+      <c r="D67" s="1">
+        <v>8.6114375859969172E-2</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-0.71368507614681942</v>
+      </c>
+      <c r="F67" s="1">
+        <v>8.0135586218792518</v>
+      </c>
+      <c r="G67" s="1">
+        <v>-25.583333333333158</v>
+      </c>
+      <c r="H67" s="1">
+        <v>7.4300720547109904</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.46728418185014142</v>
+      </c>
+      <c r="J67" s="7">
+        <v>2.3225976866498197</v>
+      </c>
+      <c r="K67" s="7">
+        <v>1.649085439938262</v>
+      </c>
+      <c r="L67" s="1">
+        <v>2.74397876921548</v>
+      </c>
+      <c r="M67" s="1">
+        <v>3.8786011268422591</v>
+      </c>
+      <c r="N67" s="1">
+        <v>10.83333333333333</v>
+      </c>
+      <c r="O67" s="1">
+        <v>6.670324755863617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1.3468561382360629</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3.2751048175616582</v>
+      </c>
+      <c r="D68" s="1">
+        <v>-1.7222875171962752E-2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.547326954133732</v>
+      </c>
+      <c r="F68" s="1">
+        <v>6.1062916273777397</v>
+      </c>
+      <c r="G68" s="1">
+        <v>-12.333333333333311</v>
+      </c>
+      <c r="H68" s="1">
+        <v>12.812308700189529</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-0.90024500941148311</v>
+      </c>
+      <c r="J68" s="7">
+        <v>3.1700642995790131</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0.92915260468586569</v>
+      </c>
+      <c r="L68" s="1">
+        <v>3.3459260693134332</v>
+      </c>
+      <c r="M68" s="1">
+        <v>5.6795491625834273</v>
+      </c>
+      <c r="N68" s="1">
+        <v>17.78666655222575</v>
+      </c>
+      <c r="O68" s="1">
+        <v>4.9522164878050408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.497484101334728</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.10323691262286161</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.29278887792407732</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-0.25397406744367407</v>
+      </c>
+      <c r="F69" s="1">
+        <v>7.1574569641608354</v>
+      </c>
+      <c r="G69" s="1">
+        <v>6.1666666666665648</v>
+      </c>
+      <c r="H69" s="1">
+        <v>-1.733739108338568</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.14665721905325671</v>
+      </c>
+      <c r="J69" s="7">
+        <v>5.598319664350127</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0.94738761436811214</v>
+      </c>
+      <c r="L69" s="1">
+        <v>5.1398621634875967</v>
+      </c>
+      <c r="M69" s="1">
+        <v>8.5945306163445316</v>
+      </c>
+      <c r="N69" s="1">
+        <v>15.81666692097982</v>
+      </c>
+      <c r="O69" s="1">
+        <v>4.8686874952171708</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-0.29068898913832131</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3.3792696101508479</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.70613788205222683</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2.4336608838987139</v>
+      </c>
+      <c r="F70" s="1">
+        <v>6.9180758710981713</v>
+      </c>
+      <c r="G70" s="1">
+        <v>-5.4999999999997939</v>
+      </c>
+      <c r="H70" s="1">
+        <v>-8.6517965182686112</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-0.34063805505349259</v>
+      </c>
+      <c r="J70" s="7">
+        <v>2.4388128571912073</v>
+      </c>
+      <c r="K70" s="7">
+        <v>1.3216659660952252</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2.8571122233563226</v>
+      </c>
+      <c r="M70" s="1">
+        <v>-0.11490190562044836</v>
+      </c>
+      <c r="N70" s="1">
+        <v>12.603333155314131</v>
+      </c>
+      <c r="O70" s="1">
+        <v>-9.7255579651143282</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.837598840582555</v>
+      </c>
+      <c r="C71" s="1">
+        <v>-1.8405889631283308</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.29278887792407732</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-1.5195017978354211</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4.5349919878266816</v>
+      </c>
+      <c r="G71" s="1">
+        <v>-29.499999999999986</v>
+      </c>
+      <c r="H71" s="1">
+        <v>7.9836923229290733</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.46041329872051412</v>
+      </c>
+      <c r="J71" s="7">
+        <v>4.6126423043564477</v>
+      </c>
+      <c r="K71" s="7">
+        <v>2.06675512283788</v>
+      </c>
+      <c r="L71" s="1">
+        <v>3.9489999999998906</v>
+      </c>
+      <c r="M71" s="1">
+        <v>4.0708087310089649</v>
+      </c>
+      <c r="N71" s="1">
+        <v>21.5733331044515</v>
+      </c>
+      <c r="O71" s="1">
+        <v>-7.4036352637204583</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="1">
+        <v>-4.4358756046915904</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5.9129976688639729</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.6028006310202505</v>
+      </c>
+      <c r="E72" s="1">
+        <v>5.1484348010119705</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4.1074414143033335</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-4.5000000000001714</v>
+      </c>
+      <c r="H72" s="1">
+        <v>-11.19663246803907</v>
+      </c>
+      <c r="I72" s="1">
+        <v>-3.6794298454390528E-2</v>
+      </c>
+      <c r="J72" s="7">
+        <v>2.3885324428463148</v>
+      </c>
+      <c r="K72" s="7">
+        <v>2.1268549860096089</v>
+      </c>
+      <c r="L72" s="1">
+        <v>3.5799999999999317</v>
+      </c>
+      <c r="M72" s="1">
+        <v>1.4369596680163883</v>
+      </c>
+      <c r="N72" s="1">
+        <v>15.01999982198079</v>
+      </c>
+      <c r="O72" s="1">
+        <v>-7.2588010649602603</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="1">
+        <v>-0.93155506579354341</v>
+      </c>
+      <c r="C73" s="1">
+        <v>7.3867514249152944</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-0.49946337998820767</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4.471549106704642</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1.5753473023196483</v>
+      </c>
+      <c r="G73" s="1">
+        <v>15.166666666666551</v>
+      </c>
+      <c r="H73" s="1">
+        <v>-2.0409363057549399</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-0.32817257912836872</v>
+      </c>
+      <c r="J73" s="7">
+        <v>1.1422154689964961</v>
+      </c>
+      <c r="K73" s="7">
+        <v>2.5372442075870265</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2.9103322606387518</v>
+      </c>
+      <c r="M73" s="1">
+        <v>6.3841742224728462</v>
+      </c>
+      <c r="N73" s="1">
+        <v>15.636666297912599</v>
+      </c>
+      <c r="O73" s="1">
+        <v>-2.2199635534695799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1">
+        <v>5.9130901778145128</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4.0838079038564512</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.46501762964417104</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.88014108069396357</v>
+      </c>
+      <c r="F74" s="1">
+        <v>-0.38486867124431523</v>
+      </c>
+      <c r="G74" s="1">
+        <v>-4.6666666666666865</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3.783367853540085</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.47774231271169038</v>
+      </c>
+      <c r="J74" s="7">
+        <v>3.3896040558114322</v>
+      </c>
+      <c r="K74" s="7">
+        <v>2.0007367683766688</v>
+      </c>
+      <c r="L74" s="1">
+        <v>3.430878343572267</v>
+      </c>
+      <c r="M74" s="1">
+        <v>7.2501432133582799</v>
+      </c>
+      <c r="N74" s="1">
+        <v>17.113333384195961</v>
+      </c>
+      <c r="O74" s="1">
+        <v>5.6610149774939309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.94978037395321158</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2.0897918203227839</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.27556600275211451</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1.0916156323611761</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2.224360659890833</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.58333333333351334</v>
+      </c>
+      <c r="H75" s="1">
+        <v>11.2689900903988</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.17271007507717509</v>
+      </c>
+      <c r="J75" s="7">
+        <v>2.0789412481938183</v>
+      </c>
+      <c r="K75" s="7">
+        <v>1.8824950471687802</v>
+      </c>
+      <c r="L75" s="1">
+        <v>3.0800000000000192</v>
+      </c>
+      <c r="M75" s="1">
+        <v>-1.1052713136606431</v>
+      </c>
+      <c r="N75" s="1">
+        <v>13.20666662851969</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1.0940595988041175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1">
+        <v>-9.8111404051475635</v>
+      </c>
+      <c r="C76" s="1">
+        <v>-7.7297397629057629</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1.360607138588432</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-1.053055746815734</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2.8921584065360153</v>
+      </c>
+      <c r="G76" s="1">
+        <v>-35.33333333333335</v>
+      </c>
+      <c r="H76" s="1">
+        <v>-14.03624839450481</v>
+      </c>
+      <c r="I76" s="1">
+        <v>-0.9884558317997616</v>
+      </c>
+      <c r="J76" s="7">
+        <v>-3.5304443261413825</v>
+      </c>
+      <c r="K76" s="7">
+        <v>1.8711812740234386</v>
+      </c>
+      <c r="L76" s="1">
+        <v>-2.8231085757036545</v>
+      </c>
+      <c r="M76" s="1">
+        <v>-10.750720807762301</v>
+      </c>
+      <c r="N76" s="1">
+        <v>37.496667226155601</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1.2727424520200041</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1">
+        <v>24.171012442629561</v>
+      </c>
+      <c r="C77" s="1">
+        <v>50.985905575954796</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-0.98170388480431914</v>
+      </c>
+      <c r="E77" s="1">
+        <v>22.798178846819962</v>
+      </c>
+      <c r="F77" s="1">
+        <v>-6.985084208955203</v>
+      </c>
+      <c r="G77" s="1">
+        <v>-6.9166666666664156</v>
+      </c>
+      <c r="H77" s="1">
+        <v>29.34772693386503</v>
+      </c>
+      <c r="I77" s="1">
+        <v>4.4004340201996648</v>
+      </c>
+      <c r="J77" s="7">
+        <v>-30.003053161498144</v>
+      </c>
+      <c r="K77" s="7">
+        <v>1.7017324056836016</v>
+      </c>
+      <c r="L77" s="1">
+        <v>-23.045109902734215</v>
+      </c>
+      <c r="M77" s="1">
+        <v>-59.545157920629265</v>
+      </c>
+      <c r="N77" s="1">
+        <v>30.696667353312179</v>
+      </c>
+      <c r="O77" s="1">
+        <v>5.5700898751795229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>-8.3117609387302789</v>
+      </c>
+      <c r="C78" s="1">
+        <v>-25.38847742976802</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-3.0828946557890369</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-14.110165160581969</v>
+      </c>
+      <c r="F78" s="1">
+        <v>-14.28716647166152</v>
+      </c>
+      <c r="G78" s="1">
+        <v>52.666666666666551</v>
+      </c>
+      <c r="H78" s="1">
+        <v>20.110447252681752</v>
+      </c>
+      <c r="I78" s="1">
+        <v>-1.1858726365432479</v>
+      </c>
+      <c r="J78" s="7">
+        <v>-8.6154983678722505</v>
+      </c>
+      <c r="K78" s="7">
+        <v>1.789535271539209</v>
+      </c>
+      <c r="L78" s="1">
+        <v>-10.202328901579353</v>
+      </c>
+      <c r="M78" s="1">
+        <v>-10.511690649931236</v>
+      </c>
+      <c r="N78" s="1">
+        <v>25.746666590372719</v>
+      </c>
+      <c r="O78" s="1">
+        <v>15.43439800049646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1">
+        <v>33.201506082180472</v>
+      </c>
+      <c r="C79" s="1">
+        <v>-28.049076300513811</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-2.2045280220166941</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-27.776330936090872</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-16.757416853613456</v>
+      </c>
+      <c r="G79" s="1">
+        <v>14.833333333333171</v>
+      </c>
+      <c r="H79" s="1">
+        <v>5.7343611900269016</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-2.9308901806192051</v>
+      </c>
+      <c r="J79" s="7">
+        <v>-1.2921816546276215</v>
+      </c>
+      <c r="K79" s="7">
+        <v>1.9465805357618846</v>
+      </c>
+      <c r="L79" s="1">
+        <v>-2.6937971329574153</v>
+      </c>
+      <c r="M79" s="1">
+        <v>12.192877347453123</v>
+      </c>
+      <c r="N79" s="1">
+        <v>27.113333384195961</v>
+      </c>
+      <c r="O79" s="1">
+        <v>19.279123426380714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1">
+        <v>18.002721065408601</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3.2329842854277757</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1.205601262040368</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-2.9228588063753951</v>
+      </c>
+      <c r="F80" s="1">
+        <v>-19.391329935332649</v>
+      </c>
+      <c r="G80" s="1">
+        <v>13.499999999999979</v>
+      </c>
+      <c r="H80" s="1">
+        <v>3.3807785948447422</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-1.0925248037495621</v>
+      </c>
+      <c r="J80" s="7">
+        <v>4.3372804479333356</v>
+      </c>
+      <c r="K80" s="7">
+        <v>2.5583878637390174</v>
+      </c>
+      <c r="L80" s="1">
+        <v>3.9168040034163694</v>
+      </c>
+      <c r="M80" s="1">
+        <v>34.829596706967749</v>
+      </c>
+      <c r="N80" s="1">
+        <v>26.813333511352539</v>
+      </c>
+      <c r="O80" s="1">
+        <v>21.091746862875631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="1">
+        <v>-12.504383060510579</v>
+      </c>
+      <c r="C81" s="1">
+        <v>-4.5662657530204385</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-4.8396279233335786</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-1.194639651975127</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-8.2703380577436896</v>
+      </c>
+      <c r="G81" s="1">
+        <v>6.5833333333333854</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1.24191928241089</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-0.1269929674656094</v>
+      </c>
+      <c r="J81" s="7">
+        <v>42.232351230269494</v>
+      </c>
+      <c r="K81" s="7">
+        <v>2.6949694736688228</v>
+      </c>
+      <c r="L81" s="1">
+        <v>31.491696997270296</v>
+      </c>
+      <c r="M81" s="1">
+        <v>173.94589981543629</v>
+      </c>
+      <c r="N81" s="1">
+        <v>17.06666692097982</v>
+      </c>
+      <c r="O81" s="1">
+        <v>18.030177473877895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="1">
+        <v>-29.576291224453982</v>
+      </c>
+      <c r="C82" s="1">
+        <v>-5.8122819064035713</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-2.7728829026928858</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4.1387244102804699</v>
+      </c>
+      <c r="F82" s="1">
+        <v>-2.8017020603774081</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-18.50000000000005</v>
+      </c>
+      <c r="H82" s="1">
+        <v>11.826621289006651</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1.7158386635673151</v>
+      </c>
+      <c r="J82" s="7">
+        <v>11.641210480427644</v>
+      </c>
+      <c r="K82" s="7">
+        <v>4.6656026803354091</v>
+      </c>
+      <c r="L82" s="1">
+        <v>12.692990845743932</v>
+      </c>
+      <c r="M82" s="1">
+        <v>25.270161698898324</v>
+      </c>
+      <c r="N82" s="1">
+        <v>19.286666234334309</v>
+      </c>
+      <c r="O82" s="1">
+        <v>3.9323400139476292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="1">
+        <v>-24.636946289351311</v>
+      </c>
+      <c r="C83" s="1">
+        <v>-0.80507750590723681</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-1.9806306447806339</v>
+      </c>
+      <c r="E83" s="1">
+        <v>6.0142565833942951</v>
+      </c>
+      <c r="F83" s="1">
+        <v>3.6787103879737271</v>
+      </c>
+      <c r="G83" s="1">
+        <v>-13.16666666666659</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.92752977972850204</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.48394395153698788</v>
+      </c>
+      <c r="J83" s="7">
+        <v>3.3762553166818492</v>
+      </c>
+      <c r="K83" s="7">
+        <v>5.9708395974613069</v>
+      </c>
+      <c r="L83" s="1">
+        <v>4.7326467679060649</v>
+      </c>
+      <c r="M83" s="1">
+        <v>-2.6442835078917968</v>
+      </c>
+      <c r="N83" s="1">
+        <v>20.223333358764648</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1.1958927068007679</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1">
+        <v>-11.21354042381151</v>
+      </c>
+      <c r="C84" s="1">
+        <v>8.0077321977989122</v>
+      </c>
+      <c r="D84" s="1">
+        <v>-1.463944389620486</v>
+      </c>
+      <c r="E84" s="1">
+        <v>7.4909985841033588</v>
+      </c>
+      <c r="F84" s="1">
+        <v>9.831079152934775</v>
+      </c>
+      <c r="G84" s="1">
+        <v>-17.250000000000121</v>
+      </c>
+      <c r="H84" s="1">
+        <v>-9.4910469229794217</v>
+      </c>
+      <c r="I84" s="1">
+        <v>-1.931857709675914</v>
+      </c>
+      <c r="J84" s="7">
+        <v>3.7586756738210254</v>
+      </c>
+      <c r="K84" s="7">
+        <v>6.2201494679346094</v>
+      </c>
+      <c r="L84" s="1">
+        <v>4.7226638000544074</v>
+      </c>
+      <c r="M84" s="1">
+        <v>-1.1438784980716159</v>
+      </c>
+      <c r="N84" s="1">
+        <v>25.179999669392899</v>
+      </c>
+      <c r="O84" s="1">
+        <v>-3.0785409060795952</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.68143575912931187</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7.0546467494253307</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-1.016149635148333</v>
+      </c>
+      <c r="E85" s="1">
+        <v>3.5509902331020795</v>
+      </c>
+      <c r="F85" s="1">
+        <v>8.6166473683700637</v>
+      </c>
+      <c r="G85" s="1">
+        <v>6.6666666666668206</v>
+      </c>
+      <c r="H85" s="1">
+        <v>-15.696291043804649</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-0.98412323786790701</v>
+      </c>
+      <c r="J85" s="7">
+        <v>3.3480756567052778</v>
+      </c>
+      <c r="K85" s="7">
+        <v>8.2906679533784864</v>
+      </c>
+      <c r="L85" s="1">
+        <v>4.5007594410845986</v>
+      </c>
+      <c r="M85" s="1">
+        <v>1.1139887810842108</v>
+      </c>
+      <c r="N85" s="1">
+        <v>29.433333714803059</v>
+      </c>
+      <c r="O85" s="1">
+        <v>-15.946779422478738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>